--- a/kvision/ksample/mytable/result/007_c5918.xlsx
+++ b/kvision/ksample/mytable/result/007_c5918.xlsx
@@ -35,13 +35,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="2">
@@ -50,11 +64,15 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -439,199 +457,202 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr"/>
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>广东理工学院</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>肇庆学校</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>集团</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr"/>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>可容纳学生人数</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>学校利用率</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>可容纳学生人数</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>学校利用率</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>可容纳学生人数</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>学校利用率</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>2015/2016</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>19,152</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>94.3%</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>6,829</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>87.6%</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>25,981</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>92.5%</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>2016/2017</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>19,152</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>90.1%</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>6,829</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>91.6%</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>25,981</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>90.5%</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>2017/2018</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>25,148</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>86.3%</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>6,829</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>81.3%</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>31,977</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>85.2%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>2018/2019</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>29,148</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>90.8%</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>6,829</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>86.0%</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>35,977</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>89.9%</t>
         </is>

--- a/kvision/ksample/mytable/result/007_c5918.xlsx
+++ b/kvision/ksample/mytable/result/007_c5918.xlsx
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -57,6 +57,53 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -64,7 +111,7 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
@@ -73,6 +120,10 @@
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -457,202 +508,202 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr"/>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr"/>
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>广东理工学院</t>
         </is>
       </c>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="C1" s="5" t="n"/>
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>肇庆学校</t>
         </is>
       </c>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="E1" s="5" t="n"/>
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>集团</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="G1" s="5" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr"/>
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>可容纳学生人数</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>学校利用率</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>可容纳学生人数</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>学校利用率</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>可容纳学生人数</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>学校利用率</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>2015/2016</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>19,152</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>94.3%</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>6,829</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>87.6%</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>25,981</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>92.5%</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>2016/2017</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>19,152</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>90.1%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>6,829</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>91.6%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>25,981</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>90.5%</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>2017/2018</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>25,148</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>86.3%</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>6,829</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>81.3%</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>31,977</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>85.2%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>2018/2019</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>29,148</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>90.8%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>6,829</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>86.0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>35,977</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>89.9%</t>
         </is>

--- a/kvision/ksample/mytable/result/007_c5918.xlsx
+++ b/kvision/ksample/mytable/result/007_c5918.xlsx
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -102,6 +102,53 @@
       </top>
       <bottom style="thick">
         <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
       </bottom>
     </border>
   </borders>
@@ -111,7 +158,7 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
@@ -124,6 +171,10 @@
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -508,202 +559,202 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr"/>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr"/>
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>广东理工学院</t>
         </is>
       </c>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="C1" s="7" t="n"/>
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>肇庆学校</t>
         </is>
       </c>
-      <c r="E1" s="5" t="n"/>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="E1" s="7" t="n"/>
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>集团</t>
         </is>
       </c>
-      <c r="G1" s="5" t="n"/>
+      <c r="G1" s="7" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr"/>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr"/>
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>可容纳学生人数</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>学校利用率</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>可容纳学生人数</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>学校利用率</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>可容纳学生人数</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>学校利用率</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>2015/2016</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>19,152</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>94.3%</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>6,829</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>87.6%</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>25,981</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="6" t="inlineStr">
         <is>
           <t>92.5%</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2016/2017</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>19,152</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>90.1%</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>6,829</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>91.6%</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>25,981</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>90.5%</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2017/2018</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>25,148</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>86.3%</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>6,829</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>81.3%</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>31,977</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="6" t="inlineStr">
         <is>
           <t>85.2%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>2018/2019</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>29,148</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>90.8%</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>6,829</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>86.0%</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>35,977</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="6" t="inlineStr">
         <is>
           <t>89.9%</t>
         </is>
